--- a/ibpsa2019/kshape-results.xlsx
+++ b/ibpsa2019/kshape-results.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BDG_avg_weekday" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +23,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">HIGHER THE BETTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOWER THE BETTER</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -44,6 +60,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +110,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -105,14 +131,428 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>713520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="713520" y="517320"/>
+          <a:ext cx="13146840" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347040</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826920" y="9087840"/>
+          <a:ext cx="13337640" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269640</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>106560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="813240" y="17600040"/>
+          <a:ext cx="13273920" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114480</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510480</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927000" y="26022960"/>
+          <a:ext cx="13401000" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185400</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="997920" y="34342920"/>
+          <a:ext cx="13464360" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1183320" y="42928200"/>
+          <a:ext cx="13528080" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>513720</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1326240" y="51130080"/>
+          <a:ext cx="13146840" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13146840" cy="7659360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A21:T331"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T343" activeCellId="0" sqref="T343"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S130" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S177" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T230" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T282" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T331" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -123,7 +563,59 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
